--- a/apps/inertiion-services/data/Book1.xlsx
+++ b/apps/inertiion-services/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozahn\Documents\source\scratchworks\apps\inertiion-services\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA83781-DC9F-4D34-8CB3-47104B175C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CE61A-8473-4CF9-821B-17F4C6D810D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6BEE52B8-C285-48F0-89A2-099468F840A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>18-2-3</t>
   </si>
@@ -68,51 +68,12 @@
     <t>30/1/23</t>
   </si>
   <si>
-    <t>18-2-2</t>
-  </si>
-  <si>
-    <t>18-2-1</t>
-  </si>
-  <si>
     <t>18-2-4</t>
   </si>
   <si>
-    <t>18-2-5</t>
-  </si>
-  <si>
-    <t>18-2-6</t>
-  </si>
-  <si>
-    <t>18-2-7</t>
-  </si>
-  <si>
     <t>18-2-8</t>
   </si>
   <si>
-    <t>18-2-9</t>
-  </si>
-  <si>
-    <t>18-2-10</t>
-  </si>
-  <si>
-    <t>18-2-11</t>
-  </si>
-  <si>
-    <t>18-2-12</t>
-  </si>
-  <si>
-    <t>18-2-13</t>
-  </si>
-  <si>
-    <t>18-2-14</t>
-  </si>
-  <si>
-    <t>18-2-15</t>
-  </si>
-  <si>
-    <t>18-2-16</t>
-  </si>
-  <si>
     <t>AH256 Black</t>
   </si>
   <si>
@@ -123,6 +84,9 @@
   </si>
   <si>
     <t>AH317 Royal</t>
+  </si>
+  <si>
+    <t>12-2-9</t>
   </si>
 </sst>
 </file>
@@ -173,13 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25369458-18D2-4A91-9449-7F3542433993}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,32 +493,62 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -566,17 +558,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -586,17 +578,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -605,199 +597,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/apps/inertiion-services/data/Book1.xlsx
+++ b/apps/inertiion-services/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozahn\Documents\source\scratchworks\apps\inertiion-services\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CE61A-8473-4CF9-821B-17F4C6D810D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D189A55-E1D3-46E4-B2D7-13D6714FAFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6BEE52B8-C285-48F0-89A2-099468F840A7}"/>
+    <workbookView xWindow="4710" yWindow="75" windowWidth="19200" windowHeight="20910" xr2:uid="{6BEE52B8-C285-48F0-89A2-099468F840A7}"/>
   </bookViews>
   <sheets>
     <sheet name="mario" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>18-2-3</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>12-2-9</t>
+  </si>
+  <si>
+    <t>1A-3-1</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,41 +497,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
       <c r="D4">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -542,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -559,16 +547,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -582,18 +570,38 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/apps/inertiion-services/data/Book1.xlsx
+++ b/apps/inertiion-services/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozahn\Documents\source\scratchworks\apps\inertiion-services\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D189A55-E1D3-46E4-B2D7-13D6714FAFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930B90E-8CBB-4073-9115-C5AD41BBFA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4710" yWindow="75" windowWidth="19200" windowHeight="20910" xr2:uid="{6BEE52B8-C285-48F0-89A2-099468F840A7}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>18-2-3</t>
-  </si>
-  <si>
-    <t>G4152 Grey/Black</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -65,31 +56,397 @@
     <t>Location</t>
   </si>
   <si>
-    <t>30/1/23</t>
-  </si>
-  <si>
-    <t>18-2-4</t>
-  </si>
-  <si>
-    <t>18-2-8</t>
-  </si>
-  <si>
-    <t>AH256 Black</t>
-  </si>
-  <si>
-    <t>Ah256 Red</t>
-  </si>
-  <si>
-    <t>AH230 Red</t>
-  </si>
-  <si>
-    <t>AH317 Royal</t>
-  </si>
-  <si>
-    <t>12-2-9</t>
-  </si>
-  <si>
-    <t>1A-3-1</t>
+    <t>1GB2-3-1</t>
+  </si>
+  <si>
+    <t>ST1238</t>
+  </si>
+  <si>
+    <t>29/08/2019</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>1GB2-3-2</t>
+  </si>
+  <si>
+    <t>ST1232</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>1GB2-4-1</t>
+  </si>
+  <si>
+    <t>Colourway</t>
+  </si>
+  <si>
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>Royal/White</t>
+  </si>
+  <si>
+    <t>White/Navy</t>
+  </si>
+  <si>
+    <t>24/05/2012</t>
+  </si>
+  <si>
+    <t>24/03/2018</t>
+  </si>
+  <si>
+    <t>1GB2-4-2</t>
+  </si>
+  <si>
+    <t>Records 2013-2015-2016</t>
+  </si>
+  <si>
+    <t>1GB3-3-1</t>
+  </si>
+  <si>
+    <t>ST1043</t>
+  </si>
+  <si>
+    <t>Bottle/Gold</t>
+  </si>
+  <si>
+    <t>18/05/2018</t>
+  </si>
+  <si>
+    <t>1GB3-3-2</t>
+  </si>
+  <si>
+    <t>ST1242</t>
+  </si>
+  <si>
+    <t>MIXED</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>1GB3-4-1</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>14/07/2015</t>
+  </si>
+  <si>
+    <t>1GB3-4-2</t>
+  </si>
+  <si>
+    <t>G2138</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>27/05/2019</t>
+  </si>
+  <si>
+    <t>1GB4-3-1</t>
+  </si>
+  <si>
+    <t>Records March 2015 - Carpet</t>
+  </si>
+  <si>
+    <t>1GB4-3-2</t>
+  </si>
+  <si>
+    <t>ST1097</t>
+  </si>
+  <si>
+    <t>Shirt Pallet F</t>
+  </si>
+  <si>
+    <t>12/09/2019</t>
+  </si>
+  <si>
+    <t>1GB4-3-3</t>
+  </si>
+  <si>
+    <t>Records 2015</t>
+  </si>
+  <si>
+    <t>1GB4-4-1</t>
+  </si>
+  <si>
+    <t>ST1431</t>
+  </si>
+  <si>
+    <t>HOT PINK/BLACK</t>
+  </si>
+  <si>
+    <t>23/05/2018</t>
+  </si>
+  <si>
+    <t>1GB4-4-2</t>
+  </si>
+  <si>
+    <t>G4001</t>
+  </si>
+  <si>
+    <t>BLACK/ORANGE</t>
+  </si>
+  <si>
+    <t>4/10/2019</t>
+  </si>
+  <si>
+    <t>1GB4-4-3</t>
+  </si>
+  <si>
+    <t>ST1460</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>1GB5-3-1</t>
+  </si>
+  <si>
+    <t>AH142</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>22/08/2022</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>1GB5-3-2</t>
+  </si>
+  <si>
+    <t>1GB5-3-3</t>
+  </si>
+  <si>
+    <t>G3220</t>
+  </si>
+  <si>
+    <t>BLACK/SILVER/ORANGE</t>
+  </si>
+  <si>
+    <t>2/08/2016</t>
+  </si>
+  <si>
+    <t>G2168</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>28/09/2013</t>
+  </si>
+  <si>
+    <t>1GB5-4-1</t>
+  </si>
+  <si>
+    <t>ST1240</t>
+  </si>
+  <si>
+    <t>22/05/2015</t>
+  </si>
+  <si>
+    <t>1GB5-4-2</t>
+  </si>
+  <si>
+    <t>1GB5-4-3</t>
+  </si>
+  <si>
+    <t>BLACK/GOLD</t>
+  </si>
+  <si>
+    <t>AB1-1-1</t>
+  </si>
+  <si>
+    <t>ST1252</t>
+  </si>
+  <si>
+    <t>SHIRT PALLET D</t>
+  </si>
+  <si>
+    <t>AB1-1-2</t>
+  </si>
+  <si>
+    <t>BOTTLE/WHITE</t>
+  </si>
+  <si>
+    <t>AB1-2-1</t>
+  </si>
+  <si>
+    <t>AB1-2-2</t>
+  </si>
+  <si>
+    <t>NAVY/RED</t>
+  </si>
+  <si>
+    <t>AB1-3-1</t>
+  </si>
+  <si>
+    <t>Jack pallet back to China.</t>
+  </si>
+  <si>
+    <t>24/01/2023</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>AB1-3-2</t>
+  </si>
+  <si>
+    <t>G2183</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>AB-2-1-1</t>
+  </si>
+  <si>
+    <t>ST1020</t>
+  </si>
+  <si>
+    <t>RED/WHITE</t>
+  </si>
+  <si>
+    <t>11/05/2018</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>AB2-1-2</t>
+  </si>
+  <si>
+    <t>ST1012</t>
+  </si>
+  <si>
+    <t>Black/white/red</t>
+  </si>
+  <si>
+    <t>21/05/2018</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>WHITE / NAVY / RED</t>
+  </si>
+  <si>
+    <t>AB2-1-3</t>
+  </si>
+  <si>
+    <t>SHIRT PALLET 3</t>
+  </si>
+  <si>
+    <t>AB2-2-1</t>
+  </si>
+  <si>
+    <t>WHITE/NAVY</t>
+  </si>
+  <si>
+    <t>AB2-2-2</t>
+  </si>
+  <si>
+    <t>ST1250</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>AB2-2-3</t>
+  </si>
+  <si>
+    <t>NAVY/WHITE</t>
+  </si>
+  <si>
+    <t>AB2-3-1</t>
+  </si>
+  <si>
+    <t>AB2-3-2</t>
+  </si>
+  <si>
+    <t>AB2-3-3</t>
+  </si>
+  <si>
+    <t>2/02/2018</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>01-3-1</t>
+  </si>
+  <si>
+    <t>AH755</t>
+  </si>
+  <si>
+    <t>5/01/2022</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>01-3-2</t>
+  </si>
+  <si>
+    <t>G2184</t>
+  </si>
+  <si>
+    <t>7/08/2014</t>
+  </si>
+  <si>
+    <t>01-3-3</t>
+  </si>
+  <si>
+    <t>BLACK/RED</t>
+  </si>
+  <si>
+    <t>01-4-1</t>
+  </si>
+  <si>
+    <t>G1188</t>
+  </si>
+  <si>
+    <t>RED/WHITE/BLACK</t>
+  </si>
+  <si>
+    <t>1/02/2016</t>
+  </si>
+  <si>
+    <t>01-4-2</t>
+  </si>
+  <si>
+    <t>G1345</t>
+  </si>
+  <si>
+    <t>30/01/2023</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>BLACK/BLACK/WHITE/CHARCOAL</t>
+  </si>
+  <si>
+    <t>MAROON/NAVY/WHITE/CHARCOAL</t>
+  </si>
+  <si>
+    <t>01-4-3</t>
   </si>
 </sst>
 </file>
@@ -105,16 +462,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,11 +496,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,232 +816,854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25369458-18D2-4A91-9449-7F3542433993}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E16">
+        <v>900</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>250</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>550</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>550</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>550</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E41">
+        <v>1950</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>96</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>150</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="E44">
+        <v>280</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/apps/inertiion-services/data/Book1.xlsx
+++ b/apps/inertiion-services/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozahn\Documents\source\scratchworks\apps\inertiion-services\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930B90E-8CBB-4073-9115-C5AD41BBFA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE84EE8-82FC-4448-A096-D925014A4543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4710" yWindow="75" windowWidth="19200" windowHeight="20910" xr2:uid="{6BEE52B8-C285-48F0-89A2-099468F840A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>MAROON/NAVY/WHITE/CHARCOAL</t>
-  </si>
-  <si>
-    <t>01-4-3</t>
   </si>
 </sst>
 </file>
@@ -816,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25369458-18D2-4A91-9449-7F3542433993}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,11 +1654,6 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
